--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ab</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>${sex}</t>
+  </si>
+  <si>
+    <t>XVXVC</t>
+  </si>
+  <si>
+    <t>XAVIER</t>
+  </si>
+  <si>
+    <t>MALE</t>
   </si>
 </sst>
 </file>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +466,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
